--- a/BigPicture/Assets/Resources/DataSheets/ReCruitElement.xlsx
+++ b/BigPicture/Assets/Resources/DataSheets/ReCruitElement.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>Me Too</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm Player</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +516,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -555,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>

--- a/BigPicture/Assets/Resources/DataSheets/ReCruitElement.xlsx
+++ b/BigPicture/Assets/Resources/DataSheets/ReCruitElement.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Unity\BigPicture\BigPicture\Assets\Resources\DataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BigPicture\BigPicture\Assets\Resources\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,197 @@
   </si>
   <si>
     <t>I'm Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalkNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q? = QuestNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O? = Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이염</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그.. 그래…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LikeAbility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L? = LikeAbillity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T? = TalkNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 파티에 참가하고 싶어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O3,L1,Q2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호감도획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]좋아
+[1]생각해보고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE = RepeatEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalkType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수(반복x = 0, 반복o = 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ex) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O3,L1,Q1\
+O4,L0,Q0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아\
+음.. 싫어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]RE,L1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촉촉이한테 안부를 전해줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 좀 도와줄래?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +319,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -136,15 +327,262 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,28 +951,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -580,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -609,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -632,7 +1073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -655,7 +1096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -672,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -689,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -706,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -722,6 +1163,700 @@
       <c r="E9">
         <v>0</v>
       </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="20">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="13">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="20">
+        <v>2</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="21">
+        <v>3</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+    </row>
+    <row r="18" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="18"/>
+    </row>
+    <row r="21" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" s="18"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" s="18"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="18"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" s="18"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="14">
+        <v>0</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0</v>
+      </c>
+      <c r="D26" s="20">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="19">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="15">
+        <v>3</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1</v>
+      </c>
+      <c r="D27" s="21">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="12">
+        <v>0</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="26">
+        <v>1</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="21">
+        <v>2</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/BigPicture/Assets/Resources/DataSheets/ReCruitElement.xlsx
+++ b/BigPicture/Assets/Resources/DataSheets/ReCruitElement.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LikeAbility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L? = LikeAbillity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,11 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0]좋아
-[1]생각해보고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RE = RepeatEnd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,11 +240,6 @@
   </si>
   <si>
     <t>RE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O3,L1,Q1\
-O4,L0,Q0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -262,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0]RE,L1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>퀘스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,6 +265,36 @@
   </si>
   <si>
     <t>나 좀 도와줄래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아\
+생각해보고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE,L1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O3,L1,Q1\
+O4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedLikeAbility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호감도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,15 +961,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
@@ -1334,13 +1342,13 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -1361,19 +1369,29 @@
         <v>0</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
+      <c r="J19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="O19" s="18"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1392,19 +1410,13 @@
       <c r="G20" s="8"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" s="22" t="s">
+      <c r="J20" s="18"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="O20" s="18"/>
@@ -1421,13 +1433,13 @@
         <v>1</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
@@ -1435,7 +1447,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>43</v>
@@ -1455,8 +1467,8 @@
       <c r="J22" s="18"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="20" t="s">
-        <v>31</v>
+      <c r="M22" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>44</v>
@@ -1469,25 +1481,25 @@
         <v>29</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="N23" s="4" t="s">
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" s="8" t="s">
         <v>45</v>
       </c>
       <c r="O23" s="18"/>
@@ -1498,7 +1510,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>19</v>
@@ -1510,21 +1522,12 @@
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="O24" s="18"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="13">
         <v>0</v>
@@ -1539,17 +1542,25 @@
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
+      <c r="J25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" s="19">
+        <v>0</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="14">
         <v>0</v>
@@ -1564,17 +1575,13 @@
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
-      <c r="J26" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="L26" s="19">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>58</v>
+      <c r="J26" s="18"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
@@ -1597,12 +1604,12 @@
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>60</v>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20">
+        <v>99</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
@@ -1617,19 +1624,28 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21">
+        <v>100</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>64</v>
+      </c>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="E29" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
@@ -1643,10 +1659,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="12">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
       <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+      <c r="E30" s="26">
+        <v>1</v>
+      </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
@@ -1663,7 +1685,9 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="E31" s="21">
+        <v>2</v>
+      </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -1680,7 +1704,6 @@
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -1694,16 +1717,8 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
-      <c r="B33" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="D33" s="18"/>
-      <c r="E33" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -1717,16 +1732,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
-      <c r="B34" s="12">
-        <v>0</v>
-      </c>
-      <c r="C34" s="12">
-        <v>0</v>
-      </c>
       <c r="D34" s="18"/>
-      <c r="E34" s="26">
-        <v>1</v>
-      </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -1742,9 +1748,6 @@
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="21">
-        <v>2</v>
-      </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -1761,7 +1764,6 @@
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
